--- a/pythonExcel/data/xl/sales_report_template.xlsx
+++ b/pythonExcel/data/xl/sales_report_template.xlsx
@@ -1,50 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fz/Dev/python-for-excel/material/xl/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/summer/PycharmProjects/LearningPython/pythonExcel/data/xl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54CAF3D-8375-D641-8524-AB602A417BDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F314B4-C5BA-2347-8605-66618D48A45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="29840" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="400" yWindow="760" windowWidth="29840" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Sales Report</t>
+  </si>
+  <si>
+    <t>Washington DC</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Las Vegas</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mmm\ yy"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="mmm\ yy"/>
+    <numFmt numFmtId="177" formatCode="mmmm\,\ yy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -53,22 +90,30 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -76,31 +121,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FFE93423"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFE93423"/>
@@ -122,7 +189,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -163,9 +230,12 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$3</c:f>
+              <c:f>Sheet1!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -175,232 +245,54 @@
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$4:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>mmm\ yy</c:formatCode>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$15</c:f>
+              <c:f>Sheet1!$I$4:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>218544.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>216402.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200853.59999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>193275.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>186197.44999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>208014.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>196042.50000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>214959.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>201187.90000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>173170.65000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>214258.65000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>201613.40000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F4A0-074F-8371-407BB50A9304}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$4:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>mmm\ yy</c:formatCode>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$4:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F4A0-074F-8371-407BB50A9304}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$4:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>mmm\ yy</c:formatCode>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$4:$E$15</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F4A0-074F-8371-407BB50A9304}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$4:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>mmm\ yy</c:formatCode>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$4:$F$15</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F4A0-074F-8371-407BB50A9304}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$4:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>mmm\ yy</c:formatCode>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$4:$G$15</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F4A0-074F-8371-407BB50A9304}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$4:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>mmm\ yy</c:formatCode>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$4:$H$15</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-F4A0-074F-8371-407BB50A9304}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -441,7 +333,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="mmm\ yy" sourceLinked="1"/>
+        <c:numFmt formatCode="mmmm\,\ yy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -514,8 +406,8 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8640000" cy="4140000"/>
@@ -832,166 +724,402 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="9" width="14" customWidth="1"/>
+    <col min="2" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="2:9" ht="31">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="5"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="5"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="5"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="5"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="5"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="5"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="5"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="5"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="5"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="5"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="5"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="5"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="5"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+    <row r="3" spans="2:9">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="3">
+        <v>43496</v>
+      </c>
+      <c r="C4" s="6">
+        <v>14057.6</v>
+      </c>
+      <c r="D4" s="6">
+        <v>21784.1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>23012.75</v>
+      </c>
+      <c r="F4" s="6">
+        <v>49872.85</v>
+      </c>
+      <c r="G4" s="6">
+        <v>51187.7</v>
+      </c>
+      <c r="H4" s="6">
+        <v>58629.85</v>
+      </c>
+      <c r="I4" s="7">
+        <v>218544.85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="3">
+        <v>43524</v>
+      </c>
+      <c r="C5" s="6">
+        <v>15235.4</v>
+      </c>
+      <c r="D5" s="6">
+        <v>21454.9</v>
+      </c>
+      <c r="E5" s="6">
+        <v>25493.1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>46669.85</v>
+      </c>
+      <c r="G5" s="6">
+        <v>52330.85</v>
+      </c>
+      <c r="H5" s="6">
+        <v>55218.65</v>
+      </c>
+      <c r="I5" s="7">
+        <v>216402.75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="3">
+        <v>43555</v>
+      </c>
+      <c r="C6" s="6">
+        <v>14177.05</v>
+      </c>
+      <c r="D6" s="6">
+        <v>20043</v>
+      </c>
+      <c r="E6" s="6">
+        <v>23451.1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>41572.25</v>
+      </c>
+      <c r="G6" s="6">
+        <v>48897.25</v>
+      </c>
+      <c r="H6" s="6">
+        <v>52712.95</v>
+      </c>
+      <c r="I6" s="7">
+        <v>200853.59999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="3">
+        <v>43585</v>
+      </c>
+      <c r="C7" s="6">
+        <v>13339.15</v>
+      </c>
+      <c r="D7" s="6">
+        <v>18791.05</v>
+      </c>
+      <c r="E7" s="6">
+        <v>22710.15</v>
+      </c>
+      <c r="F7" s="6">
+        <v>41714.300000000003</v>
+      </c>
+      <c r="G7" s="6">
+        <v>47396.35</v>
+      </c>
+      <c r="H7" s="6">
+        <v>49324.65</v>
+      </c>
+      <c r="I7" s="7">
+        <v>193275.65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C8" s="6">
+        <v>13147.1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>18036.75</v>
+      </c>
+      <c r="E8" s="6">
+        <v>21526.55</v>
+      </c>
+      <c r="F8" s="6">
+        <v>40610.400000000001</v>
+      </c>
+      <c r="G8" s="6">
+        <v>45117.05</v>
+      </c>
+      <c r="H8" s="6">
+        <v>47759.6</v>
+      </c>
+      <c r="I8" s="7">
+        <v>186197.44999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="3">
+        <v>43646</v>
+      </c>
+      <c r="C9" s="6">
+        <v>14284.3</v>
+      </c>
+      <c r="D9" s="6">
+        <v>21556.25</v>
+      </c>
+      <c r="E9" s="6">
+        <v>21985.05</v>
+      </c>
+      <c r="F9" s="6">
+        <v>47265.65</v>
+      </c>
+      <c r="G9" s="6">
+        <v>49460.45</v>
+      </c>
+      <c r="H9" s="6">
+        <v>53462.400000000001</v>
+      </c>
+      <c r="I9" s="7">
+        <v>208014.1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="3">
+        <v>43677</v>
+      </c>
+      <c r="C10" s="6">
+        <v>14161.5</v>
+      </c>
+      <c r="D10" s="6">
+        <v>19853</v>
+      </c>
+      <c r="E10" s="6">
+        <v>23444.3</v>
+      </c>
+      <c r="F10" s="6">
+        <v>40408.300000000003</v>
+      </c>
+      <c r="G10" s="6">
+        <v>47993.8</v>
+      </c>
+      <c r="H10" s="6">
+        <v>50181.599999999999</v>
+      </c>
+      <c r="I10" s="7">
+        <v>196042.50000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="3">
+        <v>43708</v>
+      </c>
+      <c r="C11" s="6">
+        <v>16127.05</v>
+      </c>
+      <c r="D11" s="6">
+        <v>22332.9</v>
+      </c>
+      <c r="E11" s="6">
+        <v>24927.65</v>
+      </c>
+      <c r="F11" s="6">
+        <v>45396.85</v>
+      </c>
+      <c r="G11" s="6">
+        <v>50838.9</v>
+      </c>
+      <c r="H11" s="6">
+        <v>55336.35</v>
+      </c>
+      <c r="I11" s="7">
+        <v>214959.7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="3">
+        <v>43738</v>
+      </c>
+      <c r="C12" s="6">
+        <v>14994.4</v>
+      </c>
+      <c r="D12" s="6">
+        <v>19924.5</v>
+      </c>
+      <c r="E12" s="6">
+        <v>24410.7</v>
+      </c>
+      <c r="F12" s="6">
+        <v>42830.6</v>
+      </c>
+      <c r="G12" s="6">
+        <v>49096.25</v>
+      </c>
+      <c r="H12" s="6">
+        <v>49931.45</v>
+      </c>
+      <c r="I12" s="7">
+        <v>201187.90000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="3">
+        <v>43769</v>
+      </c>
+      <c r="C13" s="6">
+        <v>12846.7</v>
+      </c>
+      <c r="D13" s="6">
+        <v>16550.95</v>
+      </c>
+      <c r="E13" s="6">
+        <v>22827.5</v>
+      </c>
+      <c r="F13" s="6">
+        <v>34090.050000000003</v>
+      </c>
+      <c r="G13" s="6">
+        <v>42543.8</v>
+      </c>
+      <c r="H13" s="6">
+        <v>44311.65</v>
+      </c>
+      <c r="I13" s="7">
+        <v>173170.65000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="3">
+        <v>43799</v>
+      </c>
+      <c r="C14" s="6">
+        <v>14057.6</v>
+      </c>
+      <c r="D14" s="6">
+        <v>21312.9</v>
+      </c>
+      <c r="E14" s="6">
+        <v>24860.25</v>
+      </c>
+      <c r="F14" s="6">
+        <v>46959.85</v>
+      </c>
+      <c r="G14" s="6">
+        <v>52011.6</v>
+      </c>
+      <c r="H14" s="6">
+        <v>55056.45</v>
+      </c>
+      <c r="I14" s="7">
+        <v>214258.65000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="3">
+        <v>43830</v>
+      </c>
+      <c r="C15" s="6">
+        <v>14702.15</v>
+      </c>
+      <c r="D15" s="6">
+        <v>19722.599999999999</v>
+      </c>
+      <c r="E15" s="6">
+        <v>24535.75</v>
+      </c>
+      <c r="F15" s="6">
+        <v>42364.35</v>
+      </c>
+      <c r="G15" s="6">
+        <v>49355.1</v>
+      </c>
+      <c r="H15" s="6">
+        <v>50933.45</v>
+      </c>
+      <c r="I15" s="7">
+        <v>201613.40000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="6">
+        <v>171130</v>
+      </c>
+      <c r="D16" s="6">
+        <v>241362.9</v>
+      </c>
+      <c r="E16" s="6">
+        <v>283184.84999999998</v>
+      </c>
+      <c r="F16" s="6">
+        <v>519755.29999999987</v>
+      </c>
+      <c r="G16" s="6">
+        <v>586229.1</v>
+      </c>
+      <c r="H16" s="6">
+        <v>622859.04999999993</v>
+      </c>
+      <c r="I16" s="6">
+        <v>2424521.1999999997</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:I16">
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="C4:H15">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>20000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:I16">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>20000</formula>
     </cfRule>
